--- a/SHAP/keep_ozone_VTZP_shap.xlsx
+++ b/SHAP/keep_ozone_VTZP_shap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,18 +444,28 @@
           <t>shap</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pair_energy</t>
+          <t>From_Same_Orbital</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0006186002214349645</v>
+        <v>1.632916089462153e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$\mathbf{b}$</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -468,7 +478,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0006055749973610047</v>
+        <v>0.003634297862900921</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$\langle pp \vert \vert qq \rangle$</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -481,7 +496,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0001338215780401426</v>
+        <v>0.0001235668008816771</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -494,7 +514,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002490391558346899</v>
+        <v>0.0007883970718058197</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -507,7 +532,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.001478927963905534</v>
+        <v>6.748331070874053e-05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -520,7 +550,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000128373377527682</v>
+        <v>0.0002619603107121422</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -533,7 +568,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0005335538794667838</v>
+        <v>0.0003517492990990623</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -546,7 +586,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.001795101664658163</v>
+        <v>0.0001793200531106027</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -559,7 +604,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.944768213043668e-05</v>
+        <v>0.0001475139073027967</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -572,7 +622,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001515648214806348</v>
+        <v>0.0001841803903263301</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -585,7 +640,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.614006011673111e-05</v>
+        <v>9.138402687976685e-05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -598,7 +658,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.110389936900869e-05</v>
+        <v>3.218592074617974e-05</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -611,7 +676,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.698405454093663e-05</v>
+        <v>4.403607992682924e-05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -624,7 +694,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003780434922468058</v>
+        <v>1.79963552426554e-05</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -637,7 +712,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.237748680865258e-05</v>
+        <v>0.0001650525225312486</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -650,7 +730,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.333293559220791e-05</v>
+        <v>0.0004471959729984548</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -663,7 +748,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001865239136441938</v>
+        <v>0.0001033953989581824</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -676,7 +766,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.349836433829822e-05</v>
+        <v>3.203442550937291e-05</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -689,7 +784,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0007345201200872914</v>
+        <v>0.0004010985483623878</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -702,7 +802,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.086173234708741e-05</v>
+        <v>2.620094815180459e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -715,7 +820,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001041086799503901</v>
+        <v>0.0002409746391146895</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -728,7 +838,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0001303813188558232</v>
+        <v>0.002364669119608438</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -741,7 +856,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003167322938109871</v>
+        <v>8.886283890297048e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -754,7 +874,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0004281130099767717</v>
+        <v>1.667501288356461e-05</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -767,7 +892,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001047107107930074</v>
+        <v>7.942505582164792e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -780,7 +910,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.996363097609948e-05</v>
+        <v>7.366839851843096e-05</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -793,7 +928,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.675272223671154e-05</v>
+        <v>4.861308295621949e-05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -806,7 +946,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.610344058950672e-05</v>
+        <v>4.840032303823423e-05</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -819,306 +964,462 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.969255208245959e-05</v>
+        <v>0.0004999630720790536</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occs2</t>
+          <t>occr4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.927276650669554e-05</v>
+        <v>6.860151238972551e-05</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SCFFr1</t>
+          <t>occs1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.250287153862184e-05</v>
+        <v>1.137741631172372e-05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SCFFr2</t>
+          <t>occs4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.286468658428329e-05</v>
+        <v>1.779033012562821e-05</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SCFFr3</t>
+          <t>SCFFr1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.592184142430613e-05</v>
+        <v>0.0001263330810008015</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SCFFr4</t>
+          <t>SCFFr2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.218639379737655e-05</v>
+        <v>5.618717644894813e-05</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SCFFs1</t>
+          <t>SCFFr3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.043244301164756e-05</v>
+        <v>0.006204654913638819</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SCFFs2</t>
+          <t>SCFFr4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.007895217553076e-05</v>
+        <v>6.848031965627506e-05</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SCFFs3</t>
+          <t>SCFFs1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0001346781421790739</v>
+        <v>0.0001885269457023166</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SCFFs4</t>
+          <t>SCFFs2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.878458200330295e-05</v>
+        <v>3.22585281992085e-05</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hrr1</t>
+          <t>SCFFs3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0001252679093498097</v>
+        <v>7.343425400549137e-05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hrr2</t>
+          <t>SCFFs4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0004968171084501372</v>
+        <v>0.0001088417929803504</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hrr3</t>
+          <t>hrr1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0001151549767427218</v>
+        <v>5.047183029967487e-05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hrr4</t>
+          <t>hrr2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.164373802535853e-05</v>
+        <v>0.0001601035790009357</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hss1</t>
+          <t>hrr3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.834894233205534e-05</v>
+        <v>8.761297843121861e-05</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hss2</t>
+          <t>hrr4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.301147725538466e-05</v>
+        <v>9.80941093322254e-05</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hss3</t>
+          <t>hss1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0002365594043608894</v>
+        <v>8.448603622286052e-05</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hss4</t>
+          <t>hss2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.376538697915714e-05</v>
+        <v>3.421460229764721e-05</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hpp</t>
+          <t>hss3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00022743450067532</v>
+        <v>4.637775434270387e-05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fp</t>
+          <t>hss4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.524476059501594e-05</v>
+        <v>4.152585970472261e-05</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fq</t>
+          <t>hpp</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7.993898065510895e-05</v>
+        <v>0.002750638540069508</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$h_{pp}$</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>occp</t>
+          <t>Fp</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.409374556686506e-05</v>
+        <v>0.00151652707486342</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$F_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>occq</t>
+          <t>Fq</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5.242787527310472e-05</v>
+        <v>0.0004916753225051912</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$F_{q}$</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>occp</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.835565339829359e-05</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$\eta_{p}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>occq</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.002727938032168187</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$\eta_{q}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>SCFFp</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1.777204017358404e-05</v>
+      <c r="C55" t="n">
+        <v>0.0003144343292138878</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$F_{p}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
